--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/15/seed5/result_data_KNN.xlsx
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.332</v>
+        <v>-13.073</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
